--- a/PLUTO/sw.xlsx
+++ b/PLUTO/sw.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="16">
   <si>
     <t>20M_sun</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -77,7 +77,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>magnetic field</t>
+    <t>test</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>magnetic field(uG)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -85,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,8 +143,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,8 +180,14 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -200,6 +219,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -219,17 +249,22 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="4" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="5" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -515,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37:N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -526,28 +561,28 @@
     <col min="1" max="1" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -584,8 +619,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
@@ -622,8 +657,8 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2">
@@ -660,8 +695,8 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2"/>
@@ -676,8 +711,8 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2">
@@ -714,28 +749,28 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1">
@@ -772,8 +807,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1">
@@ -806,9 +841,9 @@
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>14</v>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -840,14 +875,1241 @@
       </c>
       <c r="L10" s="1"/>
     </row>
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="1">
+        <v>3</v>
+      </c>
+      <c r="K12" s="6">
+        <v>2</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5">
+        <v>4</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2">
+        <v>200</v>
+      </c>
+      <c r="C13" s="2">
+        <v>400</v>
+      </c>
+      <c r="D13" s="2">
+        <v>600</v>
+      </c>
+      <c r="E13" s="2">
+        <v>800</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="2">
+        <v>200</v>
+      </c>
+      <c r="H13" s="2">
+        <v>200</v>
+      </c>
+      <c r="I13" s="2">
+        <v>200</v>
+      </c>
+      <c r="J13" s="2">
+        <v>200</v>
+      </c>
+      <c r="K13" s="2">
+        <v>200</v>
+      </c>
+      <c r="L13" s="2">
+        <v>200</v>
+      </c>
+      <c r="M13" s="2">
+        <v>200</v>
+      </c>
+      <c r="N13" s="2">
+        <v>200</v>
+      </c>
+      <c r="O13" s="2">
+        <v>200</v>
+      </c>
+      <c r="P13" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>5</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="G15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="L15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1">
+        <v>10</v>
+      </c>
+      <c r="I16" s="1">
+        <v>10</v>
+      </c>
+      <c r="J16" s="1">
+        <v>10</v>
+      </c>
+      <c r="K16" s="1">
+        <v>10</v>
+      </c>
+      <c r="L16" s="1">
+        <v>10</v>
+      </c>
+      <c r="M16" s="1">
+        <v>10</v>
+      </c>
+      <c r="N16" s="1">
+        <v>10</v>
+      </c>
+      <c r="O16" s="1">
+        <v>10</v>
+      </c>
+      <c r="P16" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1">
+        <v>9</v>
+      </c>
+      <c r="F18" s="1">
+        <v>9</v>
+      </c>
+      <c r="G18" s="1">
+        <v>9</v>
+      </c>
+      <c r="H18" s="1">
+        <v>9</v>
+      </c>
+      <c r="I18" s="1">
+        <v>9</v>
+      </c>
+      <c r="J18" s="1">
+        <v>9</v>
+      </c>
+      <c r="K18" s="1">
+        <v>9</v>
+      </c>
+      <c r="L18" s="1">
+        <v>9</v>
+      </c>
+      <c r="M18" s="1">
+        <v>9</v>
+      </c>
+      <c r="N18" s="1">
+        <v>9</v>
+      </c>
+      <c r="O18" s="1">
+        <v>9</v>
+      </c>
+      <c r="P18" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="36" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="4">
+        <v>10</v>
+      </c>
+      <c r="C20" s="5">
+        <v>8</v>
+      </c>
+      <c r="D20" s="7">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+      <c r="F20" s="6">
+        <v>11</v>
+      </c>
+      <c r="G20" s="4">
+        <v>14</v>
+      </c>
+      <c r="H20" s="5">
+        <v>7</v>
+      </c>
+      <c r="I20" s="5">
+        <v>6</v>
+      </c>
+      <c r="J20" s="1">
+        <v>12</v>
+      </c>
+      <c r="K20" s="6">
+        <v>13</v>
+      </c>
+      <c r="L20" s="4">
+        <v>17</v>
+      </c>
+      <c r="M20" s="5">
+        <v>16</v>
+      </c>
+      <c r="N20" s="5">
+        <v>15</v>
+      </c>
+      <c r="O20" s="1">
+        <v>18</v>
+      </c>
+      <c r="P20" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="2">
+        <v>200</v>
+      </c>
+      <c r="C21" s="2">
+        <v>200</v>
+      </c>
+      <c r="D21" s="2">
+        <v>200</v>
+      </c>
+      <c r="E21" s="2">
+        <v>200</v>
+      </c>
+      <c r="F21" s="2">
+        <v>200</v>
+      </c>
+      <c r="G21" s="2">
+        <v>200</v>
+      </c>
+      <c r="H21" s="2">
+        <v>200</v>
+      </c>
+      <c r="I21" s="2">
+        <v>200</v>
+      </c>
+      <c r="J21" s="2">
+        <v>200</v>
+      </c>
+      <c r="K21" s="2">
+        <v>200</v>
+      </c>
+      <c r="L21" s="2">
+        <v>200</v>
+      </c>
+      <c r="M21" s="2">
+        <v>200</v>
+      </c>
+      <c r="N21" s="2">
+        <v>200</v>
+      </c>
+      <c r="O21" s="2">
+        <v>200</v>
+      </c>
+      <c r="P21" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>5</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
+        <v>5</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O22" s="2">
+        <v>1</v>
+      </c>
+      <c r="P22" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="G23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="L23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="1">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1">
+        <v>20</v>
+      </c>
+      <c r="D24" s="1">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1">
+        <v>20</v>
+      </c>
+      <c r="F24" s="1">
+        <v>20</v>
+      </c>
+      <c r="G24" s="1">
+        <v>40</v>
+      </c>
+      <c r="H24" s="1">
+        <v>40</v>
+      </c>
+      <c r="I24" s="1">
+        <v>40</v>
+      </c>
+      <c r="J24" s="1">
+        <v>40</v>
+      </c>
+      <c r="K24" s="1">
+        <v>40</v>
+      </c>
+      <c r="L24" s="1">
+        <v>10</v>
+      </c>
+      <c r="M24" s="1">
+        <v>10</v>
+      </c>
+      <c r="N24" s="1">
+        <v>10</v>
+      </c>
+      <c r="O24" s="1">
+        <v>10</v>
+      </c>
+      <c r="P24" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="1">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1">
+        <v>9</v>
+      </c>
+      <c r="D26" s="1">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1">
+        <v>9</v>
+      </c>
+      <c r="F26" s="1">
+        <v>9</v>
+      </c>
+      <c r="G26" s="1">
+        <v>9</v>
+      </c>
+      <c r="H26" s="1">
+        <v>9</v>
+      </c>
+      <c r="I26" s="1">
+        <v>9</v>
+      </c>
+      <c r="J26" s="1">
+        <v>9</v>
+      </c>
+      <c r="K26" s="1">
+        <v>9</v>
+      </c>
+      <c r="L26" s="1">
+        <v>9</v>
+      </c>
+      <c r="M26" s="1">
+        <v>9</v>
+      </c>
+      <c r="N26" s="1">
+        <v>9</v>
+      </c>
+      <c r="O26" s="1">
+        <v>9</v>
+      </c>
+      <c r="P26" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="4">
+        <v>20</v>
+      </c>
+      <c r="C28" s="5">
+        <v>21</v>
+      </c>
+      <c r="D28" s="4">
+        <v>22</v>
+      </c>
+      <c r="E28" s="5">
+        <v>23</v>
+      </c>
+      <c r="F28" s="4">
+        <v>24</v>
+      </c>
+      <c r="G28" s="5">
+        <v>25</v>
+      </c>
+      <c r="H28" s="4">
+        <v>26</v>
+      </c>
+      <c r="I28" s="5">
+        <v>27</v>
+      </c>
+      <c r="J28" s="4">
+        <v>28</v>
+      </c>
+      <c r="K28" s="5">
+        <v>29</v>
+      </c>
+      <c r="L28" s="4">
+        <v>30</v>
+      </c>
+      <c r="M28" s="5">
+        <v>31</v>
+      </c>
+      <c r="N28" s="4">
+        <v>32</v>
+      </c>
+      <c r="O28" s="5">
+        <v>33</v>
+      </c>
+      <c r="P28" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="2">
+        <v>200</v>
+      </c>
+      <c r="C29" s="2">
+        <v>200</v>
+      </c>
+      <c r="D29" s="2">
+        <v>200</v>
+      </c>
+      <c r="E29" s="2">
+        <v>200</v>
+      </c>
+      <c r="F29" s="2">
+        <v>200</v>
+      </c>
+      <c r="G29" s="2">
+        <v>200</v>
+      </c>
+      <c r="H29" s="2">
+        <v>200</v>
+      </c>
+      <c r="I29" s="2">
+        <v>200</v>
+      </c>
+      <c r="J29" s="2">
+        <v>200</v>
+      </c>
+      <c r="K29" s="2">
+        <v>200</v>
+      </c>
+      <c r="L29" s="2">
+        <v>200</v>
+      </c>
+      <c r="M29" s="2">
+        <v>200</v>
+      </c>
+      <c r="N29" s="2">
+        <v>200</v>
+      </c>
+      <c r="O29" s="2">
+        <v>200</v>
+      </c>
+      <c r="P29" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>5</v>
+      </c>
+      <c r="E30" s="2">
+        <v>10</v>
+      </c>
+      <c r="F30" s="2">
+        <v>50</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2">
+        <v>5</v>
+      </c>
+      <c r="J30" s="2">
+        <v>10</v>
+      </c>
+      <c r="K30" s="2">
+        <v>50</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1</v>
+      </c>
+      <c r="N30" s="2">
+        <v>5</v>
+      </c>
+      <c r="O30" s="2">
+        <v>10</v>
+      </c>
+      <c r="P30" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="G31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="L31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="1">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1">
+        <v>10</v>
+      </c>
+      <c r="E32" s="1">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1">
+        <v>10</v>
+      </c>
+      <c r="G32" s="8">
+        <v>20</v>
+      </c>
+      <c r="H32" s="8">
+        <v>20</v>
+      </c>
+      <c r="I32" s="8">
+        <v>20</v>
+      </c>
+      <c r="J32" s="8">
+        <v>20</v>
+      </c>
+      <c r="K32" s="8">
+        <v>20</v>
+      </c>
+      <c r="L32" s="1">
+        <v>40</v>
+      </c>
+      <c r="M32" s="1">
+        <v>40</v>
+      </c>
+      <c r="N32" s="1">
+        <v>40</v>
+      </c>
+      <c r="O32" s="1">
+        <v>40</v>
+      </c>
+      <c r="P32" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2</v>
+      </c>
+      <c r="I33" s="1">
+        <v>2</v>
+      </c>
+      <c r="J33" s="1">
+        <v>2</v>
+      </c>
+      <c r="K33" s="1">
+        <v>2</v>
+      </c>
+      <c r="L33" s="1">
+        <v>2</v>
+      </c>
+      <c r="M33" s="1">
+        <v>2</v>
+      </c>
+      <c r="N33" s="1">
+        <v>2</v>
+      </c>
+      <c r="O33" s="1">
+        <v>2</v>
+      </c>
+      <c r="P33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="1">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1">
+        <v>9</v>
+      </c>
+      <c r="D34" s="1">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1">
+        <v>9</v>
+      </c>
+      <c r="F34" s="1">
+        <v>9</v>
+      </c>
+      <c r="G34" s="1">
+        <v>9</v>
+      </c>
+      <c r="H34" s="1">
+        <v>9</v>
+      </c>
+      <c r="I34" s="1">
+        <v>9</v>
+      </c>
+      <c r="J34" s="1">
+        <v>9</v>
+      </c>
+      <c r="K34" s="1">
+        <v>9</v>
+      </c>
+      <c r="L34" s="1">
+        <v>9</v>
+      </c>
+      <c r="M34" s="1">
+        <v>9</v>
+      </c>
+      <c r="N34" s="1">
+        <v>9</v>
+      </c>
+      <c r="O34" s="1">
+        <v>9</v>
+      </c>
+      <c r="P34" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="4">
+        <v>35</v>
+      </c>
+      <c r="C36" s="4">
+        <v>36</v>
+      </c>
+      <c r="D36" s="4">
+        <v>37</v>
+      </c>
+      <c r="E36" s="4">
+        <v>38</v>
+      </c>
+      <c r="F36" s="4">
+        <v>39</v>
+      </c>
+      <c r="G36" s="4">
+        <v>40</v>
+      </c>
+      <c r="H36" s="4">
+        <v>41</v>
+      </c>
+      <c r="I36" s="4">
+        <v>42</v>
+      </c>
+      <c r="J36" s="4">
+        <v>43</v>
+      </c>
+      <c r="K36" s="4">
+        <v>44</v>
+      </c>
+      <c r="L36" s="4">
+        <v>45</v>
+      </c>
+      <c r="M36" s="4">
+        <v>46</v>
+      </c>
+      <c r="N36" s="4">
+        <v>47</v>
+      </c>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+    </row>
+    <row r="37" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="2">
+        <v>20</v>
+      </c>
+      <c r="C37" s="2">
+        <v>100</v>
+      </c>
+      <c r="D37" s="2">
+        <v>200</v>
+      </c>
+      <c r="E37" s="2">
+        <v>20</v>
+      </c>
+      <c r="F37" s="2">
+        <v>100</v>
+      </c>
+      <c r="G37" s="2">
+        <v>200</v>
+      </c>
+      <c r="H37" s="2">
+        <v>600</v>
+      </c>
+      <c r="I37" s="2">
+        <v>800</v>
+      </c>
+      <c r="J37" s="2">
+        <v>20</v>
+      </c>
+      <c r="K37" s="2">
+        <v>100</v>
+      </c>
+      <c r="L37" s="2">
+        <v>200</v>
+      </c>
+      <c r="M37" s="2">
+        <v>600</v>
+      </c>
+      <c r="N37" s="2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="2">
+        <v>100</v>
+      </c>
+      <c r="C38" s="2">
+        <v>100</v>
+      </c>
+      <c r="D38" s="2">
+        <v>100</v>
+      </c>
+      <c r="E38" s="2">
+        <v>100</v>
+      </c>
+      <c r="F38" s="2">
+        <v>100</v>
+      </c>
+      <c r="G38" s="2">
+        <v>100</v>
+      </c>
+      <c r="H38" s="2">
+        <v>100</v>
+      </c>
+      <c r="I38" s="2">
+        <v>100</v>
+      </c>
+      <c r="J38" s="2">
+        <v>100</v>
+      </c>
+      <c r="K38" s="2">
+        <v>100</v>
+      </c>
+      <c r="L38" s="2">
+        <v>100</v>
+      </c>
+      <c r="M38" s="2">
+        <v>100</v>
+      </c>
+      <c r="N38" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="J39" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40" s="1">
+        <v>20</v>
+      </c>
+      <c r="F40" s="1">
+        <v>20</v>
+      </c>
+      <c r="G40" s="1">
+        <v>20</v>
+      </c>
+      <c r="H40" s="1">
+        <v>20</v>
+      </c>
+      <c r="I40" s="1">
+        <v>20</v>
+      </c>
+      <c r="J40" s="1">
+        <v>40</v>
+      </c>
+      <c r="K40" s="1">
+        <v>40</v>
+      </c>
+      <c r="L40" s="1">
+        <v>40</v>
+      </c>
+      <c r="M40" s="1">
+        <v>40</v>
+      </c>
+      <c r="N40" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="1">
+        <v>9</v>
+      </c>
+      <c r="C42" s="1">
+        <v>9</v>
+      </c>
+      <c r="D42" s="1">
+        <v>9</v>
+      </c>
+      <c r="E42" s="1">
+        <v>9</v>
+      </c>
+      <c r="F42" s="1">
+        <v>9</v>
+      </c>
+      <c r="G42" s="1">
+        <v>9</v>
+      </c>
+      <c r="H42" s="1">
+        <v>9</v>
+      </c>
+      <c r="I42" s="1">
+        <v>9</v>
+      </c>
+      <c r="J42" s="1">
+        <v>9</v>
+      </c>
+      <c r="K42" s="1">
+        <v>9</v>
+      </c>
+      <c r="L42" s="1">
+        <v>9</v>
+      </c>
+      <c r="M42" s="1">
+        <v>9</v>
+      </c>
+      <c r="N42" s="1">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="18">
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G15:I15"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="L31:N31"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PLUTO/sw.xlsx
+++ b/PLUTO/sw.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,13 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="24">
   <si>
     <t>20M_sun</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>30M_sun</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -84,12 +80,48 @@
     <t>magnetic field(uG)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>40M_sun</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind radius (pc)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>G28.6-0.1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>G29.7-0.3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>G53.6-2.2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>G69.0+2.7</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>G116.9+0.2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>9y</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>9y</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +179,24 @@
       <b/>
       <sz val="28"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -249,7 +299,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
@@ -259,10 +309,12 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -550,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37:N37"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -563,65 +615,71 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10" t="s">
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>1000</v>
@@ -629,7 +687,7 @@
       <c r="C3" s="2">
         <v>500</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="10">
         <v>25</v>
       </c>
       <c r="E3" s="1">
@@ -656,10 +714,13 @@
       <c r="L3" s="2">
         <v>500</v>
       </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>0.01</v>
@@ -667,7 +728,7 @@
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="10">
         <v>750</v>
       </c>
       <c r="E4" s="1">
@@ -694,14 +755,17 @@
       <c r="L4" s="2">
         <v>5000</v>
       </c>
+      <c r="N4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -713,7 +777,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2">
         <v>10</v>
@@ -721,7 +785,7 @@
       <c r="C6" s="2">
         <v>22.8</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="10">
         <v>24.7</v>
       </c>
       <c r="E6" s="1">
@@ -748,32 +812,35 @@
       <c r="L6" s="2">
         <v>4.5</v>
       </c>
+      <c r="N6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
-      <c r="B7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="B7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9">
         <v>20</v>
       </c>
       <c r="C8" s="1">
@@ -809,7 +876,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>0.01</v>
@@ -817,7 +884,7 @@
       <c r="C9" s="1">
         <v>0.1</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="9">
         <v>1</v>
       </c>
       <c r="E9" s="2">
@@ -843,12 +910,12 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="9">
         <v>10</v>
       </c>
       <c r="D10" s="1">
@@ -877,7 +944,7 @@
     </row>
     <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
@@ -904,7 +971,7 @@
     </row>
     <row r="13" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="2">
         <v>200</v>
@@ -954,7 +1021,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2">
         <v>0.05</v>
@@ -1004,25 +1071,25 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="G15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="L15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
+      <c r="B15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="G15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="L15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1">
         <v>10</v>
@@ -1072,7 +1139,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -1122,7 +1189,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1">
         <v>9</v>
@@ -1172,7 +1239,7 @@
     </row>
     <row r="20" spans="1:16" ht="36" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="4">
         <v>10</v>
@@ -1222,7 +1289,7 @@
     </row>
     <row r="21" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" s="2">
         <v>200</v>
@@ -1272,7 +1339,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" s="2">
         <v>0.05</v>
@@ -1322,25 +1389,25 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
-      <c r="B23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="G23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="L23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
+      <c r="B23" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="G23" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="L23" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" s="1">
         <v>20</v>
@@ -1390,7 +1457,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1">
         <v>0.2</v>
@@ -1440,7 +1507,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="1">
         <v>9</v>
@@ -1490,7 +1557,7 @@
     </row>
     <row r="28" spans="1:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" s="4">
         <v>20</v>
@@ -1540,7 +1607,7 @@
     </row>
     <row r="29" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" s="2">
         <v>200</v>
@@ -1590,7 +1657,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" s="2">
         <v>0.5</v>
@@ -1640,25 +1707,25 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
-      <c r="B31" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="G31" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="L31" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
+      <c r="B31" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="G31" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="L31" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32" s="1">
         <v>10</v>
@@ -1708,7 +1775,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33" s="1">
         <v>2</v>
@@ -1758,7 +1825,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" s="1">
         <v>9</v>
@@ -1808,7 +1875,7 @@
     </row>
     <row r="36" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36" s="4">
         <v>35</v>
@@ -1854,7 +1921,7 @@
     </row>
     <row r="37" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" s="2">
         <v>20</v>
@@ -1898,7 +1965,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" s="2">
         <v>100</v>
@@ -1942,25 +2009,25 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
-      <c r="B39" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="J39" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
+      <c r="B39" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="J39" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40">
         <v>10</v>
@@ -2004,7 +2071,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41" s="1">
         <v>0.2</v>
@@ -2048,7 +2115,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B42" s="1">
         <v>9</v>
@@ -2090,8 +2157,365 @@
         <v>9</v>
       </c>
     </row>
+    <row r="44" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="4">
+        <v>48</v>
+      </c>
+      <c r="C44" s="4">
+        <v>49</v>
+      </c>
+      <c r="D44" s="4">
+        <v>50</v>
+      </c>
+      <c r="E44" s="4">
+        <v>51</v>
+      </c>
+      <c r="F44" s="4">
+        <v>52</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="4"/>
+    </row>
+    <row r="45" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="2">
+        <v>800</v>
+      </c>
+      <c r="C45" s="2">
+        <v>800</v>
+      </c>
+      <c r="D45" s="2">
+        <v>800</v>
+      </c>
+      <c r="E45" s="2">
+        <v>800</v>
+      </c>
+      <c r="F45" s="2">
+        <v>800</v>
+      </c>
+      <c r="G45" s="2">
+        <v>200</v>
+      </c>
+      <c r="H45" s="2">
+        <v>200</v>
+      </c>
+      <c r="I45" s="2">
+        <v>200</v>
+      </c>
+      <c r="J45" s="2">
+        <v>200</v>
+      </c>
+      <c r="K45" s="2">
+        <v>200</v>
+      </c>
+      <c r="L45" s="2">
+        <v>200</v>
+      </c>
+      <c r="M45" s="2">
+        <v>200</v>
+      </c>
+      <c r="N45" s="2">
+        <v>200</v>
+      </c>
+      <c r="O45" s="2">
+        <v>200</v>
+      </c>
+      <c r="P45" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1</v>
+      </c>
+      <c r="I46" s="2">
+        <v>5</v>
+      </c>
+      <c r="J46" s="2">
+        <v>10</v>
+      </c>
+      <c r="K46" s="2">
+        <v>50</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M46" s="2">
+        <v>1</v>
+      </c>
+      <c r="N46" s="2">
+        <v>5</v>
+      </c>
+      <c r="O46" s="2">
+        <v>10</v>
+      </c>
+      <c r="P46" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
+      <c r="B47" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="G47" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="L47" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="1">
+        <v>10</v>
+      </c>
+      <c r="C48" s="1">
+        <v>20</v>
+      </c>
+      <c r="D48" s="1">
+        <v>40</v>
+      </c>
+      <c r="E48" s="1">
+        <v>40</v>
+      </c>
+      <c r="F48" s="1">
+        <v>70</v>
+      </c>
+      <c r="G48" s="8">
+        <v>20</v>
+      </c>
+      <c r="H48" s="8">
+        <v>20</v>
+      </c>
+      <c r="I48" s="8">
+        <v>20</v>
+      </c>
+      <c r="J48" s="8">
+        <v>20</v>
+      </c>
+      <c r="K48" s="8">
+        <v>20</v>
+      </c>
+      <c r="L48" s="1">
+        <v>40</v>
+      </c>
+      <c r="M48" s="1">
+        <v>40</v>
+      </c>
+      <c r="N48" s="1">
+        <v>40</v>
+      </c>
+      <c r="O48" s="1">
+        <v>40</v>
+      </c>
+      <c r="P48" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G49" s="1">
+        <v>2</v>
+      </c>
+      <c r="H49" s="1">
+        <v>2</v>
+      </c>
+      <c r="I49" s="1">
+        <v>2</v>
+      </c>
+      <c r="J49" s="1">
+        <v>2</v>
+      </c>
+      <c r="K49" s="1">
+        <v>2</v>
+      </c>
+      <c r="L49" s="1">
+        <v>2</v>
+      </c>
+      <c r="M49" s="1">
+        <v>2</v>
+      </c>
+      <c r="N49" s="1">
+        <v>2</v>
+      </c>
+      <c r="O49" s="1">
+        <v>2</v>
+      </c>
+      <c r="P49" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="1">
+        <v>9</v>
+      </c>
+      <c r="C50" s="1">
+        <v>9</v>
+      </c>
+      <c r="D50" s="1">
+        <v>9</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="1">
+        <v>9</v>
+      </c>
+      <c r="H50" s="1">
+        <v>9</v>
+      </c>
+      <c r="I50" s="1">
+        <v>9</v>
+      </c>
+      <c r="J50" s="1">
+        <v>9</v>
+      </c>
+      <c r="K50" s="1">
+        <v>9</v>
+      </c>
+      <c r="L50" s="1">
+        <v>9</v>
+      </c>
+      <c r="M50" s="1">
+        <v>9</v>
+      </c>
+      <c r="N50" s="1">
+        <v>9</v>
+      </c>
+      <c r="O50" s="1">
+        <v>9</v>
+      </c>
+      <c r="P50" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P51" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="21">
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="L31:N31"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="L23:N23"/>
@@ -2104,12 +2528,6 @@
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="L15:N15"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="L31:N31"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
